--- a/input/d18O.xlsx
+++ b/input/d18O.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="d18O" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="333">
   <si>
     <t>Year</t>
   </si>
@@ -930,9 +930,6 @@
   </si>
   <si>
     <t>21.766217</t>
-  </si>
-  <si>
-    <t>-999.9</t>
   </si>
   <si>
     <t>20.273531</t>
@@ -1046,11 +1043,15 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1376,7 +1377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1386,7 +1387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -3008,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3026,4314 +3029,4357 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1">
-        <v>1900</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105">
+        <v>2003</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
         <v>2004</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -11965,7 +12011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:M74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -14966,82 +15014,58 @@
       <c r="A74" s="5">
         <v>1972</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="5">
         <v>1973</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -15049,40 +15073,40 @@
         <v>1974</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -15090,122 +15114,98 @@
         <v>1975</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5">
         <v>1976</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5">
         <v>1977</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -15213,40 +15213,40 @@
         <v>1978</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -15254,40 +15254,40 @@
         <v>1979</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -15295,40 +15295,40 @@
         <v>1980</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -15336,40 +15336,40 @@
         <v>1981</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -15377,40 +15377,40 @@
         <v>1982</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -15418,40 +15418,40 @@
         <v>1983</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -15459,40 +15459,40 @@
         <v>1984</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -15500,40 +15500,40 @@
         <v>1985</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -15541,40 +15541,40 @@
         <v>1986</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -15582,40 +15582,40 @@
         <v>1987</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -15623,40 +15623,40 @@
         <v>1988</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -15664,40 +15664,40 @@
         <v>1989</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -15705,40 +15705,40 @@
         <v>1990</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -15746,40 +15746,40 @@
         <v>1991</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -15787,40 +15787,40 @@
         <v>1992</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -15828,40 +15828,40 @@
         <v>1993</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -15869,40 +15869,40 @@
         <v>1994</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -15910,40 +15910,40 @@
         <v>1995</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -15951,40 +15951,40 @@
         <v>1996</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -15992,40 +15992,40 @@
         <v>1997</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -16033,40 +16033,40 @@
         <v>1998</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -16074,40 +16074,40 @@
         <v>1999</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -16115,40 +16115,40 @@
         <v>2000</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -16156,40 +16156,40 @@
         <v>2001</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -16197,40 +16197,40 @@
         <v>2002</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -16238,40 +16238,40 @@
         <v>2003</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
